--- a/primerdata_site.xlsx
+++ b/primerdata_site.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1810" uniqueCount="265">
   <si>
     <t>No.</t>
   </si>
@@ -59,6 +59,9 @@
     <t>LOB.RAD</t>
   </si>
   <si>
+    <t>CTE.ECH</t>
+  </si>
+  <si>
     <t>PEC.LAC</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
     <t>PEC.CRA</t>
   </si>
   <si>
-    <t>CTE.ECH</t>
-  </si>
-  <si>
     <t>PAV.FRO</t>
   </si>
   <si>
@@ -143,36 +143,36 @@
     <t>ECH.LAM</t>
   </si>
   <si>
+    <t>DIP.HEL</t>
+  </si>
+  <si>
+    <t>GON.COL</t>
+  </si>
+  <si>
+    <t>MYC.ELE</t>
+  </si>
+  <si>
+    <t>POR.RUS</t>
+  </si>
+  <si>
+    <t>ECH.GEM</t>
+  </si>
+  <si>
+    <t>ECL.ASP</t>
+  </si>
+  <si>
+    <t>OUL.BEN</t>
+  </si>
+  <si>
+    <t>COS.COL</t>
+  </si>
+  <si>
+    <t>MON.EFF</t>
+  </si>
+  <si>
     <t>ACA.ECH</t>
   </si>
   <si>
-    <t>DIP.HEL</t>
-  </si>
-  <si>
-    <t>GON.COL</t>
-  </si>
-  <si>
-    <t>MYC.ELE</t>
-  </si>
-  <si>
-    <t>POR.RUS</t>
-  </si>
-  <si>
-    <t>ECH.GEM</t>
-  </si>
-  <si>
-    <t>ECL.ASP</t>
-  </si>
-  <si>
-    <t>OUL.BEN</t>
-  </si>
-  <si>
-    <t>COS.COL</t>
-  </si>
-  <si>
-    <t>MON.EFF</t>
-  </si>
-  <si>
     <t>MER.SCA</t>
   </si>
   <si>
@@ -191,15 +191,15 @@
     <t>GON.LOB</t>
   </si>
   <si>
+    <t>OUR.CRI</t>
+  </si>
+  <si>
+    <t>PSE.TAY</t>
+  </si>
+  <si>
     <t>POC.ACU</t>
   </si>
   <si>
-    <t>PSE.TAY</t>
-  </si>
-  <si>
-    <t>OUR.CRI</t>
-  </si>
-  <si>
     <t>PAV.DEC</t>
   </si>
   <si>
@@ -251,9 +251,6 @@
     <t>FIM.ANC</t>
   </si>
   <si>
-    <t>LOB.HAT</t>
-  </si>
-  <si>
     <t>TUB.MIC</t>
   </si>
   <si>
@@ -434,7 +431,7 @@
     <t>31</t>
   </si>
   <si>
-    <t>734</t>
+    <t>59</t>
   </si>
   <si>
     <t>238</t>
@@ -458,147 +455,150 @@
     <t>4</t>
   </si>
   <si>
+    <t>30</t>
+  </si>
+  <si>
     <t>29</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>418</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>630</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
@@ -626,12 +626,12 @@
     <t>22</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>84</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -656,9 +656,6 @@
     <t>47</t>
   </si>
   <si>
-    <t>122</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -698,9 +695,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>544</t>
-  </si>
-  <si>
     <t>93</t>
   </si>
   <si>
@@ -719,19 +713,13 @@
     <t>178</t>
   </si>
   <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>146</t>
   </si>
   <si>
     <t>127</t>
   </si>
   <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>366</t>
   </si>
   <si>
     <t>388</t>
@@ -759,6 +747,9 @@
   </si>
   <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
   <si>
     <t>176</t>
@@ -1212,9 +1203,6 @@
       <c r="DK1" t="s">
         <v>114</v>
       </c>
-      <c r="DL1" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1224,346 +1212,343 @@
         <v>6.0</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N2" t="s">
         <v>196</v>
       </c>
       <c r="O2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q2" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="R2" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="S2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AB2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ2" t="s">
         <v>184</v>
       </c>
-      <c r="AF2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL2" t="s">
+      <c r="AR2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>225</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>152</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>214</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO2" t="s">
         <v>146</v>
       </c>
-      <c r="AM2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>226</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>153</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>157</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>215</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>147</v>
-      </c>
       <c r="BP2" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="BQ2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BR2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BS2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN2" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="CO2" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="CP2" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="CQ2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="CR2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI2" t="s">
-        <v>112</v>
+        <v>248</v>
       </c>
       <c r="DJ2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="DK2" t="s">
-        <v>264</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
@@ -1574,346 +1559,343 @@
         <v>193.0</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" t="s">
+        <v>126</v>
+      </c>
+      <c r="M3" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" t="s">
         <v>131</v>
-      </c>
-      <c r="E3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I3" t="s">
-        <v>175</v>
-      </c>
-      <c r="J3" t="s">
-        <v>183</v>
-      </c>
-      <c r="K3" t="s">
-        <v>190</v>
-      </c>
-      <c r="L3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" t="s">
-        <v>127</v>
-      </c>
-      <c r="N3" t="s">
-        <v>132</v>
       </c>
       <c r="O3" t="s">
         <v>199</v>
       </c>
       <c r="P3" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="Q3" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="R3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U3" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="V3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y3" t="s">
         <v>208</v>
       </c>
       <c r="Z3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AA3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD3" t="s">
         <v>195</v>
       </c>
       <c r="AE3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>186</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>182</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>183</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>243</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>126</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>136</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>149</v>
+      </c>
+      <c r="CS3" t="s">
         <v>190</v>
       </c>
-      <c r="AN3" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>225</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>184</v>
-      </c>
-      <c r="BO3" t="s">
+      <c r="CT3" t="s">
+        <v>199</v>
+      </c>
+      <c r="CU3" t="s">
         <v>137</v>
       </c>
-      <c r="BP3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>137</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>150</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>191</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>199</v>
-      </c>
       <c r="CV3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="CW3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI3" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="DJ3" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="DK3" t="s">
-        <v>264</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
@@ -1924,346 +1906,343 @@
         <v>135.0</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M4" t="s">
         <v>195</v>
       </c>
       <c r="N4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="W4" t="s">
         <v>206</v>
       </c>
       <c r="X4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Z4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ4" t="s">
         <v>213</v>
       </c>
       <c r="AR4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="BD4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BL4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BM4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BN4" t="s">
+        <v>130</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BT4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BU4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY4" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CD4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CF4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CG4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CH4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CI4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CJ4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CK4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CL4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CM4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CN4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CO4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CP4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CQ4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CR4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CS4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CT4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CU4" t="s">
+        <v>126</v>
+      </c>
+      <c r="CV4" t="s">
         <v>131</v>
       </c>
-      <c r="BO4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BV4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BX4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CB4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CC4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CE4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CF4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CG4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CH4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CI4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CJ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CK4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CL4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CM4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CN4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CO4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CP4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CQ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CR4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CS4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CT4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CU4" t="s">
-        <v>127</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>127</v>
-      </c>
       <c r="CW4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="CX4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI4" t="s">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="DJ4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="DK4" t="s">
         <v>264</v>
-      </c>
-      <c r="DL4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="5">
@@ -2271,349 +2250,346 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>96.0</v>
+        <v>60.0</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J5" t="s">
         <v>148</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="M5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P5" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q5" t="s">
         <v>201</v>
       </c>
-      <c r="Q5" t="s">
-        <v>127</v>
-      </c>
       <c r="R5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S5" t="s">
-        <v>127</v>
+        <v>204</v>
       </c>
       <c r="T5" t="s">
+        <v>126</v>
+      </c>
+      <c r="U5" t="s">
         <v>148</v>
       </c>
-      <c r="U5" t="s">
-        <v>127</v>
-      </c>
       <c r="V5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AO5" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="AP5" t="s">
-        <v>228</v>
+        <v>126</v>
       </c>
       <c r="AQ5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR5" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="AS5" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="AT5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="AU5" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="AV5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX5" t="s">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AY5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BE5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BH5" t="s">
-        <v>183</v>
+        <v>126</v>
       </c>
       <c r="BI5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM5" t="s">
+        <v>135</v>
+      </c>
+      <c r="BN5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BR5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS5" t="s">
+        <v>145</v>
+      </c>
+      <c r="BT5" t="s">
         <v>227</v>
       </c>
-      <c r="BJ5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM5" t="s">
+      <c r="BU5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY5" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CC5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CD5" t="s">
+        <v>126</v>
+      </c>
+      <c r="CE5" t="s">
+        <v>226</v>
+      </c>
+      <c r="CF5" t="s">
+        <v>226</v>
+      </c>
+      <c r="CG5" t="s">
+        <v>121</v>
+      </c>
+      <c r="CH5" t="s">
         <v>136</v>
       </c>
-      <c r="BN5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS5" t="s">
-        <v>146</v>
-      </c>
-      <c r="BT5" t="s">
-        <v>229</v>
-      </c>
-      <c r="BU5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BV5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BX5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY5" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CB5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CC5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CD5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CE5" t="s">
-        <v>127</v>
-      </c>
-      <c r="CF5" t="s">
-        <v>227</v>
-      </c>
-      <c r="CG5" t="s">
-        <v>227</v>
-      </c>
-      <c r="CH5" t="s">
-        <v>122</v>
-      </c>
       <c r="CI5" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="CJ5" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="CK5" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="CL5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH5" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI5" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="DJ5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="DK5" t="s">
-        <v>265</v>
-      </c>
-      <c r="DL5" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6">
@@ -2624,346 +2600,343 @@
         <v>191.0</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
         <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X6" t="s">
         <v>207</v>
       </c>
       <c r="Y6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AD6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AE6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AM6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AP6" t="s">
         <v>148</v>
       </c>
       <c r="AQ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BC6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BG6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BH6" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="BI6" t="s">
         <v>198</v>
       </c>
       <c r="BJ6" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="BK6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW6" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="CX6" t="s">
-        <v>250</v>
+        <v>138</v>
       </c>
       <c r="CY6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="CZ6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="DA6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH6" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI6" t="s">
-        <v>112</v>
+        <v>251</v>
       </c>
       <c r="DJ6" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="DK6" t="s">
         <v>264</v>
-      </c>
-      <c r="DL6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7">
@@ -2974,346 +2947,343 @@
         <v>31.0</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N7" t="s">
+        <v>126</v>
+      </c>
+      <c r="O7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>126</v>
+      </c>
+      <c r="R7" t="s">
+        <v>172</v>
+      </c>
+      <c r="S7" t="s">
+        <v>131</v>
+      </c>
+      <c r="T7" t="s">
+        <v>126</v>
+      </c>
+      <c r="U7" t="s">
+        <v>126</v>
+      </c>
+      <c r="V7" t="s">
+        <v>126</v>
+      </c>
+      <c r="W7" t="s">
+        <v>126</v>
+      </c>
+      <c r="X7" t="s">
         <v>133</v>
       </c>
-      <c r="K7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" t="s">
-        <v>127</v>
-      </c>
-      <c r="M7" t="s">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s">
-        <v>127</v>
-      </c>
-      <c r="O7" t="s">
-        <v>127</v>
-      </c>
-      <c r="P7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>173</v>
-      </c>
-      <c r="R7" t="s">
-        <v>132</v>
-      </c>
-      <c r="S7" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" t="s">
-        <v>127</v>
-      </c>
-      <c r="V7" t="s">
-        <v>127</v>
-      </c>
-      <c r="W7" t="s">
-        <v>127</v>
-      </c>
-      <c r="X7" t="s">
-        <v>134</v>
-      </c>
       <c r="Y7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA7" t="s">
         <v>211</v>
       </c>
       <c r="AB7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS7" t="s">
+        <v>231</v>
+      </c>
+      <c r="AT7" t="s">
         <v>135</v>
       </c>
-      <c r="AH7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>216</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS7" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT7" t="s">
-        <v>233</v>
-      </c>
       <c r="AU7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="AV7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX7" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="AY7" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="AZ7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BE7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG7" t="s">
+        <v>145</v>
+      </c>
+      <c r="BH7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI7" t="s">
+        <v>226</v>
+      </c>
+      <c r="BJ7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BR7" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS7" t="s">
         <v>146</v>
       </c>
-      <c r="BH7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI7" t="s">
-        <v>227</v>
-      </c>
-      <c r="BJ7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BR7" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS7" t="s">
-        <v>147</v>
-      </c>
       <c r="BT7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BU7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="CD7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="CE7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="CF7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH7" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI7" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="DJ7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="DK7" t="s">
-        <v>265</v>
-      </c>
-      <c r="DL7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8">
@@ -3324,346 +3294,343 @@
         <v>139.0</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s">
         <v>197</v>
       </c>
       <c r="O8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="T8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="U8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X8" t="s">
         <v>195</v>
       </c>
       <c r="Y8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AB8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AM8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH8" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="BI8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ8" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="BK8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BS8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB8" t="s">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="CC8" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="CD8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH8" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI8" t="s">
-        <v>112</v>
+        <v>252</v>
       </c>
       <c r="DJ8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="DK8" t="s">
         <v>264</v>
-      </c>
-      <c r="DL8" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="9">
@@ -3674,346 +3641,343 @@
         <v>114.0</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q9" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="R9" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="T9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA9" t="s">
         <v>212</v>
       </c>
       <c r="AB9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR9" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="AS9" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY9" t="s">
-        <v>127</v>
+        <v>172</v>
       </c>
       <c r="AZ9" t="s">
-        <v>173</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG9" t="s">
         <v>198</v>
       </c>
       <c r="BH9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL9" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="CM9" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="CN9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="CO9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH9" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI9" t="s">
-        <v>112</v>
+        <v>253</v>
       </c>
       <c r="DJ9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="DK9" t="s">
-        <v>265</v>
-      </c>
-      <c r="DL9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10">
@@ -4024,346 +3988,343 @@
         <v>274.0</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O10" t="s">
         <v>195</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA10" t="s">
         <v>213</v>
       </c>
       <c r="AB10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AM10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ10" t="s">
         <v>195</v>
       </c>
       <c r="AR10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS10" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="AT10" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="AU10" t="s">
-        <v>127</v>
+        <v>203</v>
       </c>
       <c r="AV10" t="s">
-        <v>203</v>
+        <v>126</v>
       </c>
       <c r="AW10" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="AX10" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="AY10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BC10" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BD10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BE10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG10" t="s">
         <v>206</v>
       </c>
       <c r="BH10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK10" t="s">
         <v>198</v>
       </c>
       <c r="BL10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW10" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="BX10" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="BY10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BZ10" t="s">
         <v>197</v>
       </c>
       <c r="CA10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH10" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI10" t="s">
-        <v>112</v>
+        <v>254</v>
       </c>
       <c r="DJ10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="DK10" t="s">
         <v>264</v>
-      </c>
-      <c r="DL10" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11">
@@ -4374,346 +4335,343 @@
         <v>277.0</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I11" t="s">
+        <v>133</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>126</v>
+      </c>
+      <c r="L11" t="s">
+        <v>126</v>
+      </c>
+      <c r="M11" t="s">
+        <v>126</v>
+      </c>
+      <c r="N11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>126</v>
+      </c>
+      <c r="R11" t="s">
+        <v>126</v>
+      </c>
+      <c r="S11" t="s">
+        <v>132</v>
+      </c>
+      <c r="T11" t="s">
+        <v>126</v>
+      </c>
+      <c r="U11" t="s">
+        <v>126</v>
+      </c>
+      <c r="V11" t="s">
+        <v>126</v>
+      </c>
+      <c r="W11" t="s">
+        <v>126</v>
+      </c>
+      <c r="X11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO11" t="s">
         <v>134</v>
       </c>
-      <c r="J11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K11" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" t="s">
-        <v>127</v>
-      </c>
-      <c r="M11" t="s">
-        <v>127</v>
-      </c>
-      <c r="N11" t="s">
-        <v>127</v>
-      </c>
-      <c r="O11" t="s">
-        <v>127</v>
-      </c>
-      <c r="P11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>127</v>
-      </c>
-      <c r="R11" t="s">
-        <v>133</v>
-      </c>
-      <c r="S11" t="s">
-        <v>127</v>
-      </c>
-      <c r="T11" t="s">
-        <v>127</v>
-      </c>
-      <c r="U11" t="s">
-        <v>127</v>
-      </c>
-      <c r="V11" t="s">
-        <v>127</v>
-      </c>
-      <c r="W11" t="s">
-        <v>127</v>
-      </c>
-      <c r="X11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>135</v>
-      </c>
       <c r="AP11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK11" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c r="CL11" t="s">
-        <v>198</v>
+        <v>126</v>
       </c>
       <c r="CM11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH11" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI11" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="DJ11" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="DK11" t="s">
         <v>264</v>
-      </c>
-      <c r="DL11" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="12">
@@ -4721,349 +4679,346 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.0</v>
+        <v>433.0</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G12" t="s">
         <v>159</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y12" t="s">
         <v>209</v>
       </c>
       <c r="Z12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AK12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="s">
         <v>206</v>
       </c>
       <c r="AM12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AN12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AO12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BC12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="BD12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BE12" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="BF12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BG12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ12" t="s">
-        <v>127</v>
+        <v>226</v>
       </c>
       <c r="DA12" t="s">
-        <v>227</v>
+        <v>126</v>
       </c>
       <c r="DB12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH12" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI12" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="DJ12" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="DK12" t="s">
         <v>264</v>
-      </c>
-      <c r="DL12" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="13">
@@ -5074,346 +5029,343 @@
         <v>64.0</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="H13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="U13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="V13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="X13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AL13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="BD13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="BF13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BV13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BW13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH13" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI13" t="s">
-        <v>112</v>
+        <v>257</v>
       </c>
       <c r="DJ13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DK13" t="s">
         <v>264</v>
-      </c>
-      <c r="DL13" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="14">
@@ -5424,346 +5376,343 @@
         <v>66.0</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="K14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L14" t="s">
+        <v>168</v>
+      </c>
+      <c r="M14" t="s">
+        <v>194</v>
+      </c>
+      <c r="N14" t="s">
         <v>169</v>
-      </c>
-      <c r="M14" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" t="s">
-        <v>170</v>
       </c>
       <c r="O14" t="s">
         <v>200</v>
       </c>
       <c r="P14" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q14" t="s">
         <v>202</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>198</v>
       </c>
-      <c r="R14" t="s">
-        <v>146</v>
-      </c>
       <c r="S14" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="T14" t="s">
         <v>205</v>
       </c>
       <c r="U14" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="V14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="X14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Z14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AA14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AB14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AI14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AJ14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AM14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>183</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AT14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AU14" t="s">
+        <v>234</v>
+      </c>
+      <c r="AV14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>189</v>
+      </c>
+      <c r="AX14" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY14" t="s">
         <v>124</v>
       </c>
-      <c r="AN14" t="s">
-        <v>184</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>227</v>
-      </c>
-      <c r="AP14" t="s">
-        <v>229</v>
-      </c>
-      <c r="AQ14" t="s">
-        <v>230</v>
-      </c>
-      <c r="AR14" t="s">
+      <c r="AZ14" t="s">
+        <v>133</v>
+      </c>
+      <c r="BA14" t="s">
         <v>195</v>
       </c>
-      <c r="AS14" t="s">
-        <v>231</v>
-      </c>
-      <c r="AT14" t="s">
-        <v>234</v>
-      </c>
-      <c r="AU14" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV14" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW14" t="s">
-        <v>170</v>
-      </c>
-      <c r="AX14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AY14" t="s">
-        <v>205</v>
-      </c>
-      <c r="AZ14" t="s">
-        <v>125</v>
-      </c>
-      <c r="BA14" t="s">
-        <v>134</v>
-      </c>
       <c r="BB14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA14" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="DB14" t="s">
-        <v>200</v>
+        <v>153</v>
       </c>
       <c r="DC14" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="DD14" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="DE14" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="DF14" t="s">
-        <v>239</v>
+        <v>126</v>
       </c>
       <c r="DG14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH14" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI14" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="DJ14" t="s">
         <v>261</v>
       </c>
       <c r="DK14" t="s">
-        <v>264</v>
-      </c>
-      <c r="DL14" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15">
@@ -5774,346 +5723,343 @@
         <v>56.0</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" t="s">
+        <v>145</v>
+      </c>
+      <c r="G15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" t="s">
+        <v>181</v>
+      </c>
+      <c r="J15" t="s">
+        <v>188</v>
+      </c>
+      <c r="K15" t="s">
+        <v>192</v>
+      </c>
+      <c r="L15" t="s">
+        <v>186</v>
+      </c>
+      <c r="M15" t="s">
+        <v>126</v>
+      </c>
+      <c r="N15" t="s">
+        <v>191</v>
+      </c>
+      <c r="O15" t="s">
+        <v>133</v>
+      </c>
+      <c r="P15" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>126</v>
+      </c>
+      <c r="R15" t="s">
+        <v>126</v>
+      </c>
+      <c r="S15" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" t="s">
+        <v>126</v>
+      </c>
+      <c r="U15" t="s">
+        <v>126</v>
+      </c>
+      <c r="V15" t="s">
+        <v>126</v>
+      </c>
+      <c r="W15" t="s">
+        <v>126</v>
+      </c>
+      <c r="X15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>222</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS15" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT15" t="s">
+        <v>141</v>
+      </c>
+      <c r="AU15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV15" t="s">
+        <v>207</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AX15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BA15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BB15" t="s">
+        <v>235</v>
+      </c>
+      <c r="BC15" t="s">
+        <v>238</v>
+      </c>
+      <c r="BD15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BE15" t="s">
+        <v>138</v>
+      </c>
+      <c r="BF15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BG15" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BI15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BJ15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BK15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BL15" t="s">
+        <v>242</v>
+      </c>
+      <c r="BM15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BN15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BO15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BP15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BQ15" t="s">
         <v>137</v>
       </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" t="s">
-        <v>172</v>
-      </c>
-      <c r="I15" t="s">
-        <v>182</v>
-      </c>
-      <c r="J15" t="s">
-        <v>189</v>
-      </c>
-      <c r="K15" t="s">
-        <v>193</v>
-      </c>
-      <c r="L15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s">
-        <v>192</v>
-      </c>
-      <c r="O15" t="s">
-        <v>181</v>
-      </c>
-      <c r="P15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>127</v>
-      </c>
-      <c r="R15" t="s">
-        <v>127</v>
-      </c>
-      <c r="S15" t="s">
-        <v>127</v>
-      </c>
-      <c r="T15" t="s">
-        <v>127</v>
-      </c>
-      <c r="U15" t="s">
-        <v>127</v>
-      </c>
-      <c r="V15" t="s">
-        <v>127</v>
-      </c>
-      <c r="W15" t="s">
-        <v>127</v>
-      </c>
-      <c r="X15" t="s">
-        <v>127</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>137</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>219</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>223</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP15" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AR15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT15" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU15" t="s">
-        <v>142</v>
-      </c>
-      <c r="AV15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW15" t="s">
-        <v>207</v>
-      </c>
-      <c r="AX15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY15" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB15" t="s">
+      <c r="BR15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BS15" t="s">
+        <v>118</v>
+      </c>
+      <c r="BT15" t="s">
+        <v>244</v>
+      </c>
+      <c r="BU15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BX15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BY15" t="s">
+        <v>126</v>
+      </c>
+      <c r="BZ15" t="s">
+        <v>126</v>
+      </c>
+      <c r="CA15" t="s">
         <v>238</v>
       </c>
-      <c r="BC15" t="s">
-        <v>242</v>
-      </c>
-      <c r="BD15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE15" t="s">
-        <v>139</v>
-      </c>
-      <c r="BF15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG15" t="s">
-        <v>219</v>
-      </c>
-      <c r="BH15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL15" t="s">
-        <v>246</v>
-      </c>
-      <c r="BM15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ15" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS15" t="s">
-        <v>119</v>
-      </c>
-      <c r="BT15" t="s">
-        <v>248</v>
-      </c>
-      <c r="BU15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BV15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BX15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BY15" t="s">
-        <v>127</v>
-      </c>
-      <c r="BZ15" t="s">
-        <v>127</v>
-      </c>
-      <c r="CA15" t="s">
-        <v>242</v>
-      </c>
       <c r="CB15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DG15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DH15" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="DI15" t="s">
-        <v>112</v>
+        <v>259</v>
       </c>
       <c r="DJ15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="DK15" t="s">
         <v>264</v>
-      </c>
-      <c r="DL15" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="16">
@@ -6124,346 +6070,343 @@
         <v>26.0</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s">
         <v>198</v>
       </c>
       <c r="O16" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q16" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" t="s">
         <v>203</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>200</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>148</v>
       </c>
-      <c r="T16" t="s">
-        <v>172</v>
-      </c>
       <c r="U16" t="s">
-        <v>137</v>
+        <v>171</v>
       </c>
       <c r="V16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
         <v>210</v>
       </c>
       <c r="Z16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA16" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD16" t="s">
         <v>131</v>
       </c>
-      <c r="AB16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>183</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>132</v>
-      </c>
       <c r="AE16" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="AF16" t="s">
         <v>195</v>
       </c>
       <c r="AG16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AI16" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AJ16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AK16" t="s">
         <v>197</v>
       </c>
       <c r="AL16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AM16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AN16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AO16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AP16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AQ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AR16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AS16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AU16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AV16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AW16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AX16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AY16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BA16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BB16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BE16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BF16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BG16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BI16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BJ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BK16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BL16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BM16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BN16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BO16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BP16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BQ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BR16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BS16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BT16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BU16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BV16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BW16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BX16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BY16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BZ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CA16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CB16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CC16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CD16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CE16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CF16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CG16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CH16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CI16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CJ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CK16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CL16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CM16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CN16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CO16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CP16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CQ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CR16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CS16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CT16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CU16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CV16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CW16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CX16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CY16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="CZ16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DA16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DB16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DC16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DD16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DE16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="DF16" t="s">
-        <v>127</v>
+        <v>224</v>
       </c>
       <c r="DG16" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="DH16" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="DI16" t="s">
-        <v>112</v>
+        <v>260</v>
       </c>
       <c r="DJ16" t="s">
+        <v>261</v>
+      </c>
+      <c r="DK16" t="s">
         <v>263</v>
-      </c>
-      <c r="DK16" t="s">
-        <v>264</v>
-      </c>
-      <c r="DL16" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>

--- a/primerdata_site.xlsx
+++ b/primerdata_site.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1826" uniqueCount="269">
   <si>
     <t>No.</t>
   </si>
@@ -59,6 +59,9 @@
     <t>LOB.RAD</t>
   </si>
   <si>
+    <t>CTE.ECH</t>
+  </si>
+  <si>
     <t>PEC.LAC</t>
   </si>
   <si>
@@ -74,9 +77,6 @@
     <t>PEC.CRA</t>
   </si>
   <si>
-    <t>CTE.ECH</t>
-  </si>
-  <si>
     <t>PAV.FRO</t>
   </si>
   <si>
@@ -179,12 +179,12 @@
     <t>COE.ASP</t>
   </si>
   <si>
+    <t>MON.SP.</t>
+  </si>
+  <si>
     <t>FUN.SP.</t>
   </si>
   <si>
-    <t>MON.SP.</t>
-  </si>
-  <si>
     <t>LER.PUR</t>
   </si>
   <si>
@@ -230,6 +230,12 @@
     <t>OXY.LAC</t>
   </si>
   <si>
+    <t>TUB.MIC</t>
+  </si>
+  <si>
+    <t>SYM.REC</t>
+  </si>
+  <si>
     <t>FAV.ABD</t>
   </si>
   <si>
@@ -251,12 +257,6 @@
     <t>FIM.ANC</t>
   </si>
   <si>
-    <t>LOB.HAT</t>
-  </si>
-  <si>
-    <t>TUB.MIC</t>
-  </si>
-  <si>
     <t>ACR.SP.</t>
   </si>
   <si>
@@ -371,394 +371,397 @@
     <t>136</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>295</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>538</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>674</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>351</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>284</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>311</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>2759</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>477</t>
+  </si>
+  <si>
+    <t>388</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>330</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>1104</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>494</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>464</t>
-  </si>
-  <si>
-    <t>630</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>284</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>311</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>544</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>2661</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>483</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>388</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>1104</t>
-  </si>
-  <si>
     <t>27</t>
+  </si>
+  <si>
+    <t>66</t>
   </si>
   <si>
     <t>176</t>
@@ -1239,10 +1242,10 @@
         <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="J2" t="s">
         <v>132</v>
@@ -1254,10 +1257,10 @@
         <v>127</v>
       </c>
       <c r="M2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="O2" t="s">
         <v>127</v>
@@ -1266,10 +1269,10 @@
         <v>127</v>
       </c>
       <c r="Q2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="R2" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="S2" t="s">
         <v>127</v>
@@ -1296,7 +1299,7 @@
         <v>127</v>
       </c>
       <c r="AA2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AB2" t="s">
         <v>131</v>
@@ -1308,7 +1311,7 @@
         <v>127</v>
       </c>
       <c r="AE2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF2" t="s">
         <v>127</v>
@@ -1317,7 +1320,7 @@
         <v>127</v>
       </c>
       <c r="AH2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AI2" t="s">
         <v>134</v>
@@ -1332,7 +1335,7 @@
         <v>146</v>
       </c>
       <c r="AM2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AN2" t="s">
         <v>127</v>
@@ -1344,7 +1347,7 @@
         <v>127</v>
       </c>
       <c r="AQ2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AR2" t="s">
         <v>127</v>
@@ -1356,13 +1359,13 @@
         <v>232</v>
       </c>
       <c r="AU2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AV2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AW2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AX2" t="s">
         <v>127</v>
@@ -1374,10 +1377,10 @@
         <v>127</v>
       </c>
       <c r="BA2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BB2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="BC2" t="s">
         <v>127</v>
@@ -1404,7 +1407,7 @@
         <v>127</v>
       </c>
       <c r="BK2" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="BL2" t="s">
         <v>127</v>
@@ -1419,7 +1422,7 @@
         <v>147</v>
       </c>
       <c r="BP2" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="BQ2" t="s">
         <v>125</v>
@@ -1494,10 +1497,10 @@
         <v>127</v>
       </c>
       <c r="CO2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="CP2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="CQ2" t="s">
         <v>137</v>
@@ -1557,13 +1560,13 @@
         <v>112</v>
       </c>
       <c r="DJ2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="DK2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
@@ -1592,13 +1595,13 @@
         <v>131</v>
       </c>
       <c r="I3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L3" t="s">
         <v>127</v>
@@ -1610,14 +1613,14 @@
         <v>132</v>
       </c>
       <c r="O3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P3" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q3" t="s">
         <v>137</v>
       </c>
-      <c r="Q3" t="s">
-        <v>127</v>
-      </c>
       <c r="R3" t="s">
         <v>127</v>
       </c>
@@ -1628,7 +1631,7 @@
         <v>127</v>
       </c>
       <c r="U3" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="V3" t="s">
         <v>127</v>
@@ -1640,7 +1643,7 @@
         <v>142</v>
       </c>
       <c r="Y3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Z3" t="s">
         <v>146</v>
@@ -1655,7 +1658,7 @@
         <v>127</v>
       </c>
       <c r="AD3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AE3" t="s">
         <v>127</v>
@@ -1682,10 +1685,10 @@
         <v>127</v>
       </c>
       <c r="AM3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AN3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO3" t="s">
         <v>127</v>
@@ -1697,79 +1700,79 @@
         <v>127</v>
       </c>
       <c r="AR3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AS3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>200</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>226</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN3" t="s">
         <v>185</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>225</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>184</v>
       </c>
       <c r="BO3" t="s">
         <v>137</v>
       </c>
       <c r="BP3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="BQ3" t="s">
         <v>127</v>
@@ -1856,13 +1859,13 @@
         <v>137</v>
       </c>
       <c r="CS3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CT3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="CU3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="CV3" t="s">
         <v>138</v>
@@ -1907,13 +1910,13 @@
         <v>112</v>
       </c>
       <c r="DJ3" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="DK3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
@@ -1936,7 +1939,7 @@
         <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
         <v>127</v>
@@ -1945,7 +1948,7 @@
         <v>127</v>
       </c>
       <c r="J4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K4" t="s">
         <v>127</v>
@@ -1954,7 +1957,7 @@
         <v>127</v>
       </c>
       <c r="M4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="N4" t="s">
         <v>127</v>
@@ -1981,16 +1984,16 @@
         <v>127</v>
       </c>
       <c r="V4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="W4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="X4" t="s">
         <v>127</v>
       </c>
       <c r="Y4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Z4" t="s">
         <v>127</v>
@@ -2002,112 +2005,112 @@
         <v>127</v>
       </c>
       <c r="AC4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>127</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>197</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ4" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK4" t="s">
         <v>190</v>
       </c>
-      <c r="AD4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>239</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BE4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK4" t="s">
-        <v>189</v>
-      </c>
       <c r="BL4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BM4" t="s">
         <v>147</v>
@@ -2257,13 +2260,13 @@
         <v>112</v>
       </c>
       <c r="DJ4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="DK4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
@@ -2271,7 +2274,7 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="n">
-        <v>96.0</v>
+        <v>73.0</v>
       </c>
       <c r="C5" t="s">
         <v>119</v>
@@ -2283,52 +2286,52 @@
         <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I5" t="s">
         <v>127</v>
       </c>
       <c r="J5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K5" t="s">
         <v>127</v>
       </c>
       <c r="L5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M5" t="s">
+        <v>127</v>
+      </c>
+      <c r="N5" t="s">
+        <v>127</v>
+      </c>
+      <c r="O5" t="s">
+        <v>127</v>
+      </c>
+      <c r="P5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>203</v>
+      </c>
+      <c r="R5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S5" t="s">
+        <v>206</v>
+      </c>
+      <c r="T5" t="s">
+        <v>127</v>
+      </c>
+      <c r="U5" t="s">
         <v>149</v>
-      </c>
-      <c r="M5" t="s">
-        <v>127</v>
-      </c>
-      <c r="N5" t="s">
-        <v>127</v>
-      </c>
-      <c r="O5" t="s">
-        <v>127</v>
-      </c>
-      <c r="P5" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>127</v>
-      </c>
-      <c r="R5" t="s">
-        <v>125</v>
-      </c>
-      <c r="S5" t="s">
-        <v>127</v>
-      </c>
-      <c r="T5" t="s">
-        <v>148</v>
-      </c>
-      <c r="U5" t="s">
-        <v>127</v>
       </c>
       <c r="V5" t="s">
         <v>127</v>
@@ -2379,25 +2382,25 @@
         <v>127</v>
       </c>
       <c r="AL5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AM5" t="s">
         <v>127</v>
       </c>
       <c r="AN5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO5" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="AP5" t="s">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="AQ5" t="s">
         <v>127</v>
       </c>
       <c r="AR5" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="AS5" t="s">
         <v>127</v>
@@ -2406,7 +2409,7 @@
         <v>146</v>
       </c>
       <c r="AU5" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="AV5" t="s">
         <v>127</v>
@@ -2415,7 +2418,7 @@
         <v>127</v>
       </c>
       <c r="AX5" t="s">
-        <v>200</v>
+        <v>127</v>
       </c>
       <c r="AY5" t="s">
         <v>127</v>
@@ -2433,22 +2436,22 @@
         <v>127</v>
       </c>
       <c r="BD5" t="s">
-        <v>215</v>
+        <v>127</v>
       </c>
       <c r="BE5" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="BF5" t="s">
         <v>127</v>
       </c>
       <c r="BG5" t="s">
+        <v>242</v>
+      </c>
+      <c r="BH5" t="s">
+        <v>197</v>
+      </c>
+      <c r="BI5" t="s">
         <v>244</v>
-      </c>
-      <c r="BH5" t="s">
-        <v>183</v>
-      </c>
-      <c r="BI5" t="s">
-        <v>227</v>
       </c>
       <c r="BJ5" t="s">
         <v>127</v>
@@ -2484,7 +2487,7 @@
         <v>229</v>
       </c>
       <c r="BU5" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="BV5" t="s">
         <v>127</v>
@@ -2517,10 +2520,10 @@
         <v>127</v>
       </c>
       <c r="CF5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CG5" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="CH5" t="s">
         <v>122</v>
@@ -2532,7 +2535,7 @@
         <v>131</v>
       </c>
       <c r="CK5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="CL5" t="s">
         <v>127</v>
@@ -2607,13 +2610,13 @@
         <v>112</v>
       </c>
       <c r="DJ5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DK5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DL5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6">
@@ -2633,16 +2636,16 @@
         <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H6" t="s">
         <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J6" t="s">
         <v>127</v>
@@ -2687,7 +2690,7 @@
         <v>127</v>
       </c>
       <c r="X6" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Y6" t="s">
         <v>127</v>
@@ -2702,10 +2705,10 @@
         <v>127</v>
       </c>
       <c r="AC6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AD6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AE6" t="s">
         <v>127</v>
@@ -2729,7 +2732,7 @@
         <v>127</v>
       </c>
       <c r="AL6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM6" t="s">
         <v>127</v>
@@ -2738,10 +2741,10 @@
         <v>127</v>
       </c>
       <c r="AO6" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AP6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AQ6" t="s">
         <v>127</v>
@@ -2777,7 +2780,7 @@
         <v>127</v>
       </c>
       <c r="BB6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="BC6" t="s">
         <v>127</v>
@@ -2789,19 +2792,19 @@
         <v>127</v>
       </c>
       <c r="BF6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BG6" t="s">
         <v>142</v>
       </c>
       <c r="BH6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BI6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BJ6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BK6" t="s">
         <v>127</v>
@@ -2921,7 +2924,7 @@
         <v>127</v>
       </c>
       <c r="CX6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="CY6" t="s">
         <v>139</v>
@@ -2957,13 +2960,13 @@
         <v>112</v>
       </c>
       <c r="DJ6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="DK6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7">
@@ -2986,16 +2989,16 @@
         <v>127</v>
       </c>
       <c r="G7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="K7" t="s">
         <v>127</v>
@@ -3016,13 +3019,13 @@
         <v>127</v>
       </c>
       <c r="Q7" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
       <c r="R7" t="s">
+        <v>175</v>
+      </c>
+      <c r="S7" t="s">
         <v>132</v>
-      </c>
-      <c r="S7" t="s">
-        <v>127</v>
       </c>
       <c r="T7" t="s">
         <v>127</v>
@@ -3046,7 +3049,7 @@
         <v>127</v>
       </c>
       <c r="AA7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AB7" t="s">
         <v>127</v>
@@ -3079,7 +3082,7 @@
         <v>127</v>
       </c>
       <c r="AL7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM7" t="s">
         <v>132</v>
@@ -3118,7 +3121,7 @@
         <v>127</v>
       </c>
       <c r="AY7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AZ7" t="s">
         <v>127</v>
@@ -3133,10 +3136,10 @@
         <v>127</v>
       </c>
       <c r="BD7" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE7" t="s">
         <v>120</v>
-      </c>
-      <c r="BE7" t="s">
-        <v>127</v>
       </c>
       <c r="BF7" t="s">
         <v>127</v>
@@ -3148,7 +3151,7 @@
         <v>127</v>
       </c>
       <c r="BI7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BJ7" t="s">
         <v>127</v>
@@ -3172,7 +3175,7 @@
         <v>127</v>
       </c>
       <c r="BQ7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BR7" t="s">
         <v>127</v>
@@ -3181,7 +3184,7 @@
         <v>147</v>
       </c>
       <c r="BT7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="BU7" t="s">
         <v>127</v>
@@ -3307,13 +3310,13 @@
         <v>112</v>
       </c>
       <c r="DJ7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DK7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DL7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8">
@@ -3321,7 +3324,7 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="n">
-        <v>139.0</v>
+        <v>147.0</v>
       </c>
       <c r="C8" t="s">
         <v>122</v>
@@ -3333,19 +3336,19 @@
         <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G8" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K8" t="s">
         <v>139</v>
@@ -3357,37 +3360,37 @@
         <v>127</v>
       </c>
       <c r="N8" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>127</v>
+      </c>
+      <c r="R8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S8" t="s">
+        <v>127</v>
+      </c>
+      <c r="T8" t="s">
+        <v>125</v>
+      </c>
+      <c r="U8" t="s">
+        <v>127</v>
+      </c>
+      <c r="V8" t="s">
+        <v>127</v>
+      </c>
+      <c r="W8" t="s">
+        <v>127</v>
+      </c>
+      <c r="X8" t="s">
         <v>197</v>
-      </c>
-      <c r="O8" t="s">
-        <v>127</v>
-      </c>
-      <c r="P8" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>127</v>
-      </c>
-      <c r="R8" t="s">
-        <v>127</v>
-      </c>
-      <c r="S8" t="s">
-        <v>125</v>
-      </c>
-      <c r="T8" t="s">
-        <v>127</v>
-      </c>
-      <c r="U8" t="s">
-        <v>127</v>
-      </c>
-      <c r="V8" t="s">
-        <v>127</v>
-      </c>
-      <c r="W8" t="s">
-        <v>127</v>
-      </c>
-      <c r="X8" t="s">
-        <v>195</v>
       </c>
       <c r="Y8" t="s">
         <v>127</v>
@@ -3429,7 +3432,7 @@
         <v>127</v>
       </c>
       <c r="AL8" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="AM8" t="s">
         <v>127</v>
@@ -3438,7 +3441,7 @@
         <v>127</v>
       </c>
       <c r="AO8" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="AP8" t="s">
         <v>127</v>
@@ -3501,7 +3504,7 @@
         <v>127</v>
       </c>
       <c r="BJ8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="BK8" t="s">
         <v>127</v>
@@ -3534,10 +3537,10 @@
         <v>127</v>
       </c>
       <c r="BU8" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="BV8" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="BW8" t="s">
         <v>127</v>
@@ -3555,10 +3558,10 @@
         <v>127</v>
       </c>
       <c r="CB8" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="CC8" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="CD8" t="s">
         <v>127</v>
@@ -3657,13 +3660,13 @@
         <v>112</v>
       </c>
       <c r="DJ8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="DK8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9">
@@ -3686,16 +3689,16 @@
         <v>127</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="I9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K9" t="s">
         <v>127</v>
@@ -3716,13 +3719,13 @@
         <v>127</v>
       </c>
       <c r="Q9" t="s">
+        <v>127</v>
+      </c>
+      <c r="R9" t="s">
         <v>137</v>
       </c>
-      <c r="R9" t="s">
-        <v>189</v>
-      </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>190</v>
       </c>
       <c r="T9" t="s">
         <v>127</v>
@@ -3740,13 +3743,13 @@
         <v>127</v>
       </c>
       <c r="Y9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Z9" t="s">
         <v>127</v>
       </c>
       <c r="AA9" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AB9" t="s">
         <v>127</v>
@@ -3800,7 +3803,7 @@
         <v>127</v>
       </c>
       <c r="AS9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AT9" t="s">
         <v>127</v>
@@ -3821,7 +3824,7 @@
         <v>127</v>
       </c>
       <c r="AZ9" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="BA9" t="s">
         <v>127</v>
@@ -3836,13 +3839,13 @@
         <v>127</v>
       </c>
       <c r="BE9" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="BF9" t="s">
         <v>127</v>
       </c>
       <c r="BG9" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="BH9" t="s">
         <v>127</v>
@@ -3938,7 +3941,7 @@
         <v>127</v>
       </c>
       <c r="CM9" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="CN9" t="s">
         <v>134</v>
@@ -4007,13 +4010,13 @@
         <v>112</v>
       </c>
       <c r="DJ9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="DK9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="DL9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10">
@@ -4036,31 +4039,31 @@
         <v>127</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N10" t="s">
         <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P10" t="s">
         <v>127</v>
@@ -4096,7 +4099,7 @@
         <v>127</v>
       </c>
       <c r="AA10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AB10" t="s">
         <v>127</v>
@@ -4129,10 +4132,10 @@
         <v>127</v>
       </c>
       <c r="AL10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN10" t="s">
         <v>127</v>
@@ -4144,7 +4147,7 @@
         <v>127</v>
       </c>
       <c r="AQ10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AR10" t="s">
         <v>127</v>
@@ -4159,13 +4162,13 @@
         <v>127</v>
       </c>
       <c r="AV10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AW10" t="s">
         <v>127</v>
       </c>
       <c r="AX10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AY10" t="s">
         <v>127</v>
@@ -4180,82 +4183,82 @@
         <v>147</v>
       </c>
       <c r="BC10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="BD10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BE10" t="s">
         <v>138</v>
       </c>
-      <c r="BE10" t="s">
-        <v>127</v>
-      </c>
       <c r="BF10" t="s">
         <v>127</v>
       </c>
       <c r="BG10" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BI10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BJ10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK10" t="s">
+        <v>200</v>
+      </c>
+      <c r="BL10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BO10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BS10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BT10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX10" t="s">
+        <v>127</v>
+      </c>
+      <c r="BY10" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ10" t="s">
         <v>206</v>
       </c>
-      <c r="BH10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BI10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BJ10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK10" t="s">
-        <v>198</v>
-      </c>
-      <c r="BL10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BM10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BN10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BO10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BP10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BQ10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BR10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BS10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BT10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BU10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BV10" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW10" t="s">
-        <v>217</v>
-      </c>
-      <c r="BX10" t="s">
-        <v>239</v>
-      </c>
-      <c r="BY10" t="s">
-        <v>183</v>
-      </c>
-      <c r="BZ10" t="s">
-        <v>197</v>
-      </c>
       <c r="CA10" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="CB10" t="s">
-        <v>127</v>
+        <v>199</v>
       </c>
       <c r="CC10" t="s">
         <v>127</v>
@@ -4357,13 +4360,13 @@
         <v>112</v>
       </c>
       <c r="DJ10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="DK10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="DL10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11">
@@ -4389,7 +4392,7 @@
         <v>131</v>
       </c>
       <c r="H11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I11" t="s">
         <v>134</v>
@@ -4419,11 +4422,11 @@
         <v>127</v>
       </c>
       <c r="R11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S11" t="s">
         <v>133</v>
       </c>
-      <c r="S11" t="s">
-        <v>127</v>
-      </c>
       <c r="T11" t="s">
         <v>127</v>
       </c>
@@ -4485,7 +4488,7 @@
         <v>127</v>
       </c>
       <c r="AN11" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO11" t="s">
         <v>135</v>
@@ -4635,7 +4638,7 @@
         <v>127</v>
       </c>
       <c r="CL11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="CM11" t="s">
         <v>127</v>
@@ -4707,13 +4710,13 @@
         <v>112</v>
       </c>
       <c r="DJ11" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="DK11" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12">
@@ -4721,7 +4724,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="n">
-        <v>427.0</v>
+        <v>433.0</v>
       </c>
       <c r="C12" t="s">
         <v>126</v>
@@ -4736,19 +4739,19 @@
         <v>125</v>
       </c>
       <c r="G12" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="I12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L12" t="s">
         <v>127</v>
@@ -4787,10 +4790,10 @@
         <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Z12" t="s">
         <v>142</v>
@@ -4829,13 +4832,13 @@
         <v>127</v>
       </c>
       <c r="AL12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AM12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AN12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AO12" t="s">
         <v>127</v>
@@ -4877,19 +4880,19 @@
         <v>127</v>
       </c>
       <c r="BB12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BC12" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="BD12" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE12" t="s">
         <v>134</v>
       </c>
-      <c r="BE12" t="s">
-        <v>149</v>
-      </c>
       <c r="BF12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="BG12" t="s">
         <v>127</v>
@@ -5030,7 +5033,7 @@
         <v>127</v>
       </c>
       <c r="DA12" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="DB12" t="s">
         <v>127</v>
@@ -5057,13 +5060,13 @@
         <v>112</v>
       </c>
       <c r="DJ12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="DK12" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13">
@@ -5083,10 +5086,10 @@
         <v>127</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
         <v>127</v>
@@ -5230,13 +5233,13 @@
         <v>127</v>
       </c>
       <c r="BC13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="BD13" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="BE13" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="BF13" t="s">
         <v>127</v>
@@ -5284,16 +5287,16 @@
         <v>127</v>
       </c>
       <c r="BU13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>127</v>
+      </c>
+      <c r="BW13" t="s">
         <v>125</v>
       </c>
-      <c r="BV13" t="s">
-        <v>119</v>
-      </c>
-      <c r="BW13" t="s">
-        <v>127</v>
-      </c>
       <c r="BX13" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="BY13" t="s">
         <v>127</v>
@@ -5407,13 +5410,13 @@
         <v>112</v>
       </c>
       <c r="DJ13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="DK13" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14">
@@ -5433,58 +5436,58 @@
         <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H14" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" t="s">
+        <v>189</v>
+      </c>
+      <c r="K14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" t="s">
         <v>171</v>
       </c>
-      <c r="I14" t="s">
-        <v>181</v>
-      </c>
-      <c r="J14" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" t="s">
-        <v>169</v>
-      </c>
       <c r="M14" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="N14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="O14" t="s">
+        <v>202</v>
+      </c>
+      <c r="P14" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>204</v>
+      </c>
+      <c r="R14" t="s">
         <v>200</v>
       </c>
-      <c r="P14" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>198</v>
-      </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>146</v>
       </c>
-      <c r="S14" t="s">
-        <v>204</v>
-      </c>
       <c r="T14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="U14" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="V14" t="s">
         <v>134</v>
       </c>
       <c r="W14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="X14" t="s">
         <v>127</v>
@@ -5529,16 +5532,16 @@
         <v>134</v>
       </c>
       <c r="AL14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM14" t="s">
         <v>124</v>
       </c>
       <c r="AN14" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO14" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AP14" t="s">
         <v>229</v>
@@ -5547,7 +5550,7 @@
         <v>230</v>
       </c>
       <c r="AR14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AS14" t="s">
         <v>231</v>
@@ -5556,19 +5559,19 @@
         <v>234</v>
       </c>
       <c r="AU14" t="s">
+        <v>235</v>
+      </c>
+      <c r="AV14" t="s">
         <v>236</v>
       </c>
-      <c r="AV14" t="s">
-        <v>237</v>
-      </c>
       <c r="AW14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="AX14" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AY14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AZ14" t="s">
         <v>125</v>
@@ -5733,19 +5736,19 @@
         <v>127</v>
       </c>
       <c r="DB14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="DC14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="DD14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="DE14" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="DF14" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="DG14" t="s">
         <v>127</v>
@@ -5757,13 +5760,13 @@
         <v>112</v>
       </c>
       <c r="DJ14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="DK14" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15">
@@ -5771,7 +5774,7 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="n">
-        <v>56.0</v>
+        <v>68.0</v>
       </c>
       <c r="C15" t="s">
         <v>129</v>
@@ -5786,34 +5789,34 @@
         <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K15" t="s">
+        <v>194</v>
+      </c>
+      <c r="L15" t="s">
+        <v>188</v>
+      </c>
+      <c r="M15" t="s">
+        <v>127</v>
+      </c>
+      <c r="N15" t="s">
         <v>193</v>
       </c>
-      <c r="L15" t="s">
-        <v>187</v>
-      </c>
-      <c r="M15" t="s">
-        <v>133</v>
-      </c>
-      <c r="N15" t="s">
-        <v>192</v>
-      </c>
       <c r="O15" t="s">
-        <v>181</v>
+        <v>134</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="Q15" t="s">
         <v>127</v>
@@ -5846,13 +5849,13 @@
         <v>127</v>
       </c>
       <c r="AA15" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="AB15" t="s">
         <v>127</v>
       </c>
       <c r="AC15" t="s">
-        <v>214</v>
+        <v>131</v>
       </c>
       <c r="AD15" t="s">
         <v>127</v>
@@ -5879,10 +5882,10 @@
         <v>127</v>
       </c>
       <c r="AL15" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AM15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN15" t="s">
         <v>127</v>
@@ -5903,7 +5906,7 @@
         <v>127</v>
       </c>
       <c r="AT15" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="AU15" t="s">
         <v>142</v>
@@ -5912,7 +5915,7 @@
         <v>127</v>
       </c>
       <c r="AW15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="AX15" t="s">
         <v>127</v>
@@ -5927,22 +5930,22 @@
         <v>127</v>
       </c>
       <c r="BB15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BC15" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BD15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="BE15" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="BF15" t="s">
         <v>127</v>
       </c>
       <c r="BG15" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="BH15" t="s">
         <v>127</v>
@@ -5957,7 +5960,7 @@
         <v>127</v>
       </c>
       <c r="BL15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="BM15" t="s">
         <v>127</v>
@@ -5978,7 +5981,7 @@
         <v>127</v>
       </c>
       <c r="BS15" t="s">
-        <v>119</v>
+        <v>247</v>
       </c>
       <c r="BT15" t="s">
         <v>248</v>
@@ -5987,7 +5990,7 @@
         <v>127</v>
       </c>
       <c r="BV15" t="s">
-        <v>127</v>
+        <v>202</v>
       </c>
       <c r="BW15" t="s">
         <v>127</v>
@@ -6002,13 +6005,13 @@
         <v>127</v>
       </c>
       <c r="CA15" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="CB15" t="s">
         <v>127</v>
       </c>
       <c r="CC15" t="s">
-        <v>127</v>
+        <v>240</v>
       </c>
       <c r="CD15" t="s">
         <v>127</v>
@@ -6107,13 +6110,13 @@
         <v>112</v>
       </c>
       <c r="DJ15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="DK15" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16">
@@ -6133,64 +6136,64 @@
         <v>145</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
         <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I16" t="s">
         <v>142</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M16" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" t="s">
-        <v>203</v>
-      </c>
       <c r="R16" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="S16" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="T16" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="U16" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="V16" t="s">
         <v>142</v>
       </c>
       <c r="W16" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="X16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Z16" t="s">
         <v>133</v>
@@ -6202,31 +6205,31 @@
         <v>135</v>
       </c>
       <c r="AC16" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AD16" t="s">
         <v>132</v>
       </c>
       <c r="AE16" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="AF16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AG16" t="s">
         <v>132</v>
       </c>
       <c r="AH16" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AI16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AJ16" t="s">
-        <v>215</v>
+        <v>150</v>
       </c>
       <c r="AK16" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AL16" t="s">
         <v>127</v>
@@ -6448,22 +6451,22 @@
         <v>127</v>
       </c>
       <c r="DG16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="DH16" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="DI16" t="s">
         <v>112</v>
       </c>
       <c r="DJ16" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="DK16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="DL16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/primerdata_site.xlsx
+++ b/primerdata_site.xlsx
@@ -2487,7 +2487,7 @@
         <v>229</v>
       </c>
       <c r="BU5" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="BV5" t="s">
         <v>127</v>
